--- a/Question_Sets/Software skills/macOS.xlsx
+++ b/Question_Sets/Software skills/macOS.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'The top left corner of an application window has three buttons. These perform three basic tasks. Which of the following is NOT one of them?', 'ques_type': 2, 'options': ['Open', 'Close', 'Minimize', 'Maximize'], 'score': 'Open'}, {'title': 'You want to move a group of files from one folder to another folder on your Mac and want to ensure that the original files are not deleted.  What should you do?', 'ques_type': 2, 'options': ['Drag and drop the files from one folder to another while holding down the Option key.', 'Use the Copy and Paste function.', 'Use the Save As function.', 'Use the Export function.'], 'score': 'Drag and drop the files from one folder to another while holding down the Option key.'}, {'title': 'You want to set up a new user account on a shared workplace Mac computer for a new employee who will be joining the company next week. What should you do first?', 'ques_type': 2, 'options': ['Open Terminal and type "sudo useradd" followed by the new employee\'s username.', 'Open Finder and navigate to the Users folder.', 'Open the App Store and download a third-party user account management software.', 'Open System Preferences and select Users &amp;amp Groups.'], 'score': 'Open System Preferences and select Users &amp;amp Groups.'}, {'title': 'Which of the following applications should you use to keep your account information and passwords up to date across your macOS devices?', 'ques_type': 2, 'options': ['Keynote', 'Keychain', 'Keylogger', 'Keystroke'], 'score': 'Keychain'}]</t>
+    <t>questions = [
+    {
+        "title": "The top left corner of an application window has three buttons. These perform three basic tasks. Which of the following is NOT one of them?",
+        "ques_type": 2,
+        "options": [
+            "Open",
+            "Close",
+            "Minimize",
+            "Maximize"
+        ],
+        "score": "Open"
+    },
+    {
+        "title": "You want to move a group of files from one folder to another folder on your Mac and want to ensure that the original files are not deleted.  What should you do?",
+        "ques_type": 2,
+        "options": [
+            "Drag and drop the files from one folder to another while holding down the Option key.",
+            "Use the Copy and Paste function.",
+            "Use the Save As function.",
+            "Use the Export function."
+        ],
+        "score": "Drag and drop the files from one folder to another while holding down the Option key."
+    },
+    {
+        "title": "You want to set up a new user account on a shared workplace Mac computer for a new employee who will be joining the company next week. What should you do first?",
+        "ques_type": 2,
+        "options": [
+            "Open Terminal and type \"sudo useradd\" followed by the new employee's username.",
+            "Open Finder and navigate to the Users folder.",
+            "Open the App Store and download a third-party user account management software.",
+            "Open System Preferences and select Users &amp;amp Groups."
+        ],
+        "score": "Open System Preferences and select Users &amp;amp Groups."
+    },
+    {
+        "title": "Which of the following applications should you use to keep your account information and passwords up to date across your macOS devices?",
+        "ques_type": 2,
+        "options": [
+            "Keynote",
+            "Keychain",
+            "Keylogger",
+            "Keystroke"
+        ],
+        "score": "Keychain"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
